--- a/Output_testing/R1_201907/Country/HKD/MN/JAPAN_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/JAPAN_201907_HKD_MN.xlsx
@@ -810,136 +810,435 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="11" t="n"/>
-      <c r="C18" s="12" t="n"/>
-      <c r="D18" s="13" t="n"/>
-      <c r="E18" s="12" t="n"/>
-      <c r="F18" s="13" t="n"/>
-      <c r="G18" s="12" t="n"/>
-      <c r="H18" s="13" t="n"/>
-      <c r="I18" s="12" t="n"/>
-      <c r="J18" s="13" t="n"/>
-      <c r="K18" s="13" t="n"/>
+      <c r="A18" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="n">
+        <v>21640.002587</v>
+      </c>
+      <c r="D18" s="9" t="n">
+        <v>18.53597146310526</v>
+      </c>
+      <c r="E18" s="8" t="n">
+        <v>24211.338367</v>
+      </c>
+      <c r="F18" s="9" t="n">
+        <v>18.84536916870716</v>
+      </c>
+      <c r="G18" s="8" t="n">
+        <v>26105.315785</v>
+      </c>
+      <c r="H18" s="9" t="n">
+        <v>20.18691336858543</v>
+      </c>
+      <c r="I18" s="8" t="n">
+        <v>14208.934084</v>
+      </c>
+      <c r="J18" s="9" t="n">
+        <v>19.95244348826312</v>
+      </c>
+      <c r="K18" s="9" t="n">
+        <v>-6.144834034099766</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="11" t="n"/>
-      <c r="C19" s="12" t="n"/>
-      <c r="D19" s="13" t="n"/>
-      <c r="E19" s="12" t="n"/>
-      <c r="F19" s="13" t="n"/>
-      <c r="G19" s="12" t="n"/>
-      <c r="H19" s="13" t="n"/>
-      <c r="I19" s="12" t="n"/>
-      <c r="J19" s="13" t="n"/>
-      <c r="K19" s="13" t="n"/>
+      <c r="A19" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="n">
+        <v>8168.998298</v>
+      </c>
+      <c r="D19" s="9" t="n">
+        <v>6.997241276895576</v>
+      </c>
+      <c r="E19" s="8" t="n">
+        <v>9259.761435</v>
+      </c>
+      <c r="F19" s="9" t="n">
+        <v>7.207516578041824</v>
+      </c>
+      <c r="G19" s="8" t="n">
+        <v>10610.735851</v>
+      </c>
+      <c r="H19" s="9" t="n">
+        <v>8.205148988243915</v>
+      </c>
+      <c r="I19" s="8" t="n">
+        <v>5589.983648</v>
+      </c>
+      <c r="J19" s="9" t="n">
+        <v>7.849556636526859</v>
+      </c>
+      <c r="K19" s="9" t="n">
+        <v>-8.501278447202088</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="11" t="n"/>
-      <c r="C20" s="12" t="n"/>
-      <c r="D20" s="13" t="n"/>
-      <c r="E20" s="12" t="n"/>
-      <c r="F20" s="13" t="n"/>
-      <c r="G20" s="12" t="n"/>
-      <c r="H20" s="13" t="n"/>
-      <c r="I20" s="12" t="n"/>
-      <c r="J20" s="13" t="n"/>
-      <c r="K20" s="13" t="n"/>
+      <c r="A20" s="11" t="inlineStr">
+        <is>
+          <t>894</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>BABY CARRIAGES, TOYS, GAMES AND SPORTING GOODS</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="n">
+        <v>7007.828415</v>
+      </c>
+      <c r="D20" s="9" t="n">
+        <v>6.002629019869542</v>
+      </c>
+      <c r="E20" s="8" t="n">
+        <v>9835.625108</v>
+      </c>
+      <c r="F20" s="9" t="n">
+        <v>7.655751340781104</v>
+      </c>
+      <c r="G20" s="8" t="n">
+        <v>10938.011024</v>
+      </c>
+      <c r="H20" s="9" t="n">
+        <v>8.458226775904157</v>
+      </c>
+      <c r="I20" s="8" t="n">
+        <v>4291.767875</v>
+      </c>
+      <c r="J20" s="9" t="n">
+        <v>6.026578452996403</v>
+      </c>
+      <c r="K20" s="9" t="n">
+        <v>-28.06097520612891</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="11" t="n"/>
-      <c r="C21" s="12" t="n"/>
-      <c r="D21" s="13" t="n"/>
-      <c r="E21" s="12" t="n"/>
-      <c r="F21" s="13" t="n"/>
-      <c r="G21" s="12" t="n"/>
-      <c r="H21" s="13" t="n"/>
-      <c r="I21" s="12" t="n"/>
-      <c r="J21" s="13" t="n"/>
-      <c r="K21" s="13" t="n"/>
+      <c r="A21" s="11" t="inlineStr">
+        <is>
+          <t>776</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t>THERMIONIC, COLD CATHODE, DIODES, TRANSISTORS, PHOTOSENSITIVE SEMI-CONDUCTOR DEVICES, LIGHT EMITTING DIODES ETC, AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="n">
+        <v>6893.023349</v>
+      </c>
+      <c r="D21" s="9" t="n">
+        <v>5.904291534989836</v>
+      </c>
+      <c r="E21" s="8" t="n">
+        <v>12014.473281</v>
+      </c>
+      <c r="F21" s="9" t="n">
+        <v>9.351700468430918</v>
+      </c>
+      <c r="G21" s="8" t="n">
+        <v>8882.559219999999</v>
+      </c>
+      <c r="H21" s="9" t="n">
+        <v>6.868771668661498</v>
+      </c>
+      <c r="I21" s="8" t="n">
+        <v>3776.599711</v>
+      </c>
+      <c r="J21" s="9" t="n">
+        <v>5.303169953921388</v>
+      </c>
+      <c r="K21" s="9" t="n">
+        <v>-34.50618487524376</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="11" t="n"/>
-      <c r="C22" s="12" t="n"/>
-      <c r="D22" s="13" t="n"/>
-      <c r="E22" s="12" t="n"/>
-      <c r="F22" s="13" t="n"/>
-      <c r="G22" s="12" t="n"/>
-      <c r="H22" s="13" t="n"/>
-      <c r="I22" s="12" t="n"/>
-      <c r="J22" s="13" t="n"/>
-      <c r="K22" s="13" t="n"/>
+      <c r="A22" s="11" t="inlineStr">
+        <is>
+          <t>885</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="inlineStr">
+        <is>
+          <t>WATCHES AND CLOCKS</t>
+        </is>
+      </c>
+      <c r="C22" s="8" t="n">
+        <v>5801.269391</v>
+      </c>
+      <c r="D22" s="9" t="n">
+        <v>4.969138217476963</v>
+      </c>
+      <c r="E22" s="8" t="n">
+        <v>5326.025587</v>
+      </c>
+      <c r="F22" s="9" t="n">
+        <v>4.145616275628967</v>
+      </c>
+      <c r="G22" s="8" t="n">
+        <v>5571.191515</v>
+      </c>
+      <c r="H22" s="9" t="n">
+        <v>4.308132542787519</v>
+      </c>
+      <c r="I22" s="8" t="n">
+        <v>3250.776122</v>
+      </c>
+      <c r="J22" s="9" t="n">
+        <v>4.564798913398923</v>
+      </c>
+      <c r="K22" s="9" t="n">
+        <v>7.655875278879432</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="11" t="n"/>
-      <c r="C23" s="12" t="n"/>
-      <c r="D23" s="13" t="n"/>
-      <c r="E23" s="12" t="n"/>
-      <c r="F23" s="13" t="n"/>
-      <c r="G23" s="12" t="n"/>
-      <c r="H23" s="13" t="n"/>
-      <c r="I23" s="12" t="n"/>
-      <c r="J23" s="13" t="n"/>
-      <c r="K23" s="13" t="n"/>
+      <c r="A23" s="11" t="inlineStr">
+        <is>
+          <t>772</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL APPARATUS FOR SWITCHING ELECTRICAL CIRCUITS; ELECTRICAL RESISTORS; PRINTED CIRCUITS; BOARDS, CABINETS AND OTHER BASES ETC, FOR ELECTRIC CONTROL OF ELECTRICITY</t>
+        </is>
+      </c>
+      <c r="C23" s="8" t="n">
+        <v>5156.425793</v>
+      </c>
+      <c r="D23" s="9" t="n">
+        <v>4.416790661942259</v>
+      </c>
+      <c r="E23" s="8" t="n">
+        <v>5048.679243</v>
+      </c>
+      <c r="F23" s="9" t="n">
+        <v>3.929738319563753</v>
+      </c>
+      <c r="G23" s="8" t="n">
+        <v>5611.15239</v>
+      </c>
+      <c r="H23" s="9" t="n">
+        <v>4.339033786365711</v>
+      </c>
+      <c r="I23" s="8" t="n">
+        <v>3214.766675</v>
+      </c>
+      <c r="J23" s="9" t="n">
+        <v>4.514233793449486</v>
+      </c>
+      <c r="K23" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="11" t="n"/>
-      <c r="C24" s="12" t="n"/>
-      <c r="D24" s="13" t="n"/>
-      <c r="E24" s="12" t="n"/>
-      <c r="F24" s="13" t="n"/>
-      <c r="G24" s="12" t="n"/>
-      <c r="H24" s="13" t="n"/>
-      <c r="I24" s="12" t="n"/>
-      <c r="J24" s="13" t="n"/>
-      <c r="K24" s="13" t="n"/>
+      <c r="A24" s="11" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL MACHINERY AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C24" s="8" t="n">
+        <v>3499.566306</v>
+      </c>
+      <c r="D24" s="9" t="n">
+        <v>2.997590269246519</v>
+      </c>
+      <c r="E24" s="8" t="n">
+        <v>3711.296912</v>
+      </c>
+      <c r="F24" s="9" t="n">
+        <v>2.888760602208261</v>
+      </c>
+      <c r="G24" s="8" t="n">
+        <v>4137.849068</v>
+      </c>
+      <c r="H24" s="9" t="n">
+        <v>3.199746800841007</v>
+      </c>
+      <c r="I24" s="8" t="n">
+        <v>2871.034702</v>
+      </c>
+      <c r="J24" s="9" t="n">
+        <v>4.031559109631051</v>
+      </c>
+      <c r="K24" s="9" t="n">
+        <v>25.0724647313755</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="11" t="n"/>
-      <c r="C25" s="12" t="n"/>
-      <c r="D25" s="13" t="n"/>
-      <c r="E25" s="12" t="n"/>
-      <c r="F25" s="13" t="n"/>
-      <c r="G25" s="12" t="n"/>
-      <c r="H25" s="13" t="n"/>
-      <c r="I25" s="12" t="n"/>
-      <c r="J25" s="13" t="n"/>
-      <c r="K25" s="13" t="n"/>
+      <c r="A25" s="11" t="inlineStr">
+        <is>
+          <t>759</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>PARTS AND ACCESSORIES (OTHER THAN COVERS, CARRYING CASES AND THE LIKE) SUITABLE FOR USE SOLELY WITH MACHINES FALLING WITHIN GROUPS 751 AND 752</t>
+        </is>
+      </c>
+      <c r="C25" s="8" t="n">
+        <v>5454.981264</v>
+      </c>
+      <c r="D25" s="9" t="n">
+        <v>4.672521485834786</v>
+      </c>
+      <c r="E25" s="8" t="n">
+        <v>5180.805932</v>
+      </c>
+      <c r="F25" s="9" t="n">
+        <v>4.032581714402173</v>
+      </c>
+      <c r="G25" s="8" t="n">
+        <v>5211.656581</v>
+      </c>
+      <c r="H25" s="9" t="n">
+        <v>4.030108686442965</v>
+      </c>
+      <c r="I25" s="8" t="n">
+        <v>2775.915646</v>
+      </c>
+      <c r="J25" s="9" t="n">
+        <v>3.897991202406116</v>
+      </c>
+      <c r="K25" s="9" t="n">
+        <v>-11.94863494158307</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="11" t="n"/>
-      <c r="C26" s="12" t="n"/>
-      <c r="D26" s="13" t="n"/>
-      <c r="E26" s="12" t="n"/>
-      <c r="F26" s="13" t="n"/>
-      <c r="G26" s="12" t="n"/>
-      <c r="H26" s="13" t="n"/>
-      <c r="I26" s="12" t="n"/>
-      <c r="J26" s="13" t="n"/>
-      <c r="K26" s="13" t="n"/>
+      <c r="A26" s="11" t="inlineStr">
+        <is>
+          <t>771</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRIC POWER MACHINERY (OTHER THAN ROTATING ELECTRIC PLANT OF GROUP 716), AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C26" s="8" t="n">
+        <v>3829.756249</v>
+      </c>
+      <c r="D26" s="9" t="n">
+        <v>3.280417932332341</v>
+      </c>
+      <c r="E26" s="8" t="n">
+        <v>4138.88752</v>
+      </c>
+      <c r="F26" s="9" t="n">
+        <v>3.221584122275005</v>
+      </c>
+      <c r="G26" s="8" t="n">
+        <v>4151.123164</v>
+      </c>
+      <c r="H26" s="9" t="n">
+        <v>3.210011492837272</v>
+      </c>
+      <c r="I26" s="8" t="n">
+        <v>2350.574075</v>
+      </c>
+      <c r="J26" s="9" t="n">
+        <v>3.300718837820872</v>
+      </c>
+      <c r="K26" s="9" t="n">
+        <v>2.52373747509631</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="11" t="n"/>
-      <c r="C27" s="12" t="n"/>
-      <c r="D27" s="13" t="n"/>
-      <c r="E27" s="12" t="n"/>
-      <c r="F27" s="13" t="n"/>
-      <c r="G27" s="12" t="n"/>
-      <c r="H27" s="13" t="n"/>
-      <c r="I27" s="12" t="n"/>
-      <c r="J27" s="13" t="n"/>
-      <c r="K27" s="13" t="n"/>
+      <c r="A27" s="11" t="inlineStr">
+        <is>
+          <t>845</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES OF APPAREL, OF TEXTILE FABRICS, WHETHER OR NOT KNITTED OR CROCHETED, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C27" s="8" t="n">
+        <v>5325.71574</v>
+      </c>
+      <c r="D27" s="9" t="n">
+        <v>4.561797743802207</v>
+      </c>
+      <c r="E27" s="8" t="n">
+        <v>5088.862353</v>
+      </c>
+      <c r="F27" s="9" t="n">
+        <v>3.961015629839542</v>
+      </c>
+      <c r="G27" s="8" t="n">
+        <v>4439.710211</v>
+      </c>
+      <c r="H27" s="9" t="n">
+        <v>3.433172237762346</v>
+      </c>
+      <c r="I27" s="8" t="n">
+        <v>2312.747561</v>
+      </c>
+      <c r="J27" s="9" t="n">
+        <v>3.247602159364824</v>
+      </c>
+      <c r="K27" s="9" t="n">
+        <v>0.2590657542134611</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="11" t="n"/>
-      <c r="C28" s="12" t="n"/>
-      <c r="D28" s="13" t="n"/>
-      <c r="E28" s="12" t="n"/>
-      <c r="F28" s="13" t="n"/>
-      <c r="G28" s="12" t="n"/>
-      <c r="H28" s="13" t="n"/>
-      <c r="I28" s="12" t="n"/>
-      <c r="J28" s="13" t="n"/>
-      <c r="K28" s="13" t="n"/>
+      <c r="A28" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C28" s="8" t="n">
+        <v>43968.418272</v>
+      </c>
+      <c r="D28" s="9" t="n">
+        <v>37.66161039450471</v>
+      </c>
+      <c r="E28" s="8" t="n">
+        <v>44657.919414</v>
+      </c>
+      <c r="F28" s="9" t="n">
+        <v>34.76036578012129</v>
+      </c>
+      <c r="G28" s="8" t="n">
+        <v>43658.71082</v>
+      </c>
+      <c r="H28" s="9" t="n">
+        <v>33.76073365156818</v>
+      </c>
+      <c r="I28" s="8" t="n">
+        <v>26570.904804</v>
+      </c>
+      <c r="J28" s="9" t="n">
+        <v>37.31134745222096</v>
+      </c>
+      <c r="K28" s="9" t="n">
+        <v>5.959796431525399</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="11" t="n"/>
@@ -971,136 +1270,441 @@
       <c r="K30" s="13" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="11" t="n"/>
-      <c r="C31" s="12" t="n"/>
-      <c r="D31" s="13" t="n"/>
-      <c r="E31" s="12" t="n"/>
-      <c r="F31" s="13" t="n"/>
-      <c r="G31" s="12" t="n"/>
-      <c r="H31" s="13" t="n"/>
-      <c r="I31" s="12" t="n"/>
-      <c r="J31" s="13" t="n"/>
-      <c r="K31" s="13" t="n"/>
+      <c r="A31" s="11" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="inlineStr">
+        <is>
+          <t>JEWELLERY, GOLDSMITHS' AND SILVERSMITHS' WARES, AND OTHER ARTICLES OF PRECIOUS OR SEMI-PRECIOUS MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C31" s="8" t="n">
+        <v>124.213121</v>
+      </c>
+      <c r="D31" s="9" t="n">
+        <v>10.35678096376203</v>
+      </c>
+      <c r="E31" s="8" t="n">
+        <v>156.898496</v>
+      </c>
+      <c r="F31" s="9" t="n">
+        <v>15.76794214679535</v>
+      </c>
+      <c r="G31" s="8" t="n">
+        <v>212.02351</v>
+      </c>
+      <c r="H31" s="9" t="n">
+        <v>21.27470510194293</v>
+      </c>
+      <c r="I31" s="8" t="n">
+        <v>144.911055</v>
+      </c>
+      <c r="J31" s="9" t="n">
+        <v>27.0397873271181</v>
+      </c>
+      <c r="K31" s="9" t="n">
+        <v>12.23701741967636</v>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="11" t="n"/>
-      <c r="C32" s="12" t="n"/>
-      <c r="D32" s="13" t="n"/>
-      <c r="E32" s="12" t="n"/>
-      <c r="F32" s="13" t="n"/>
-      <c r="G32" s="12" t="n"/>
-      <c r="H32" s="13" t="n"/>
-      <c r="I32" s="12" t="n"/>
-      <c r="J32" s="13" t="n"/>
-      <c r="K32" s="13" t="n"/>
+      <c r="A32" s="11" t="inlineStr">
+        <is>
+          <t>098</t>
+        </is>
+      </c>
+      <c r="B32" s="1" t="inlineStr">
+        <is>
+          <t>EDIBLE PRODUCTS AND PREPARATIONS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C32" s="8" t="n">
+        <v>124.623113</v>
+      </c>
+      <c r="D32" s="9" t="n">
+        <v>10.39096573672892</v>
+      </c>
+      <c r="E32" s="8" t="n">
+        <v>147.108266</v>
+      </c>
+      <c r="F32" s="9" t="n">
+        <v>14.78404628941364</v>
+      </c>
+      <c r="G32" s="8" t="n">
+        <v>134.379969</v>
+      </c>
+      <c r="H32" s="9" t="n">
+        <v>13.48385474838725</v>
+      </c>
+      <c r="I32" s="8" t="n">
+        <v>83.147505</v>
+      </c>
+      <c r="J32" s="9" t="n">
+        <v>15.51497124895329</v>
+      </c>
+      <c r="K32" s="9" t="n">
+        <v>24.59580260933167</v>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="11" t="n"/>
-      <c r="C33" s="12" t="n"/>
-      <c r="D33" s="13" t="n"/>
-      <c r="E33" s="12" t="n"/>
-      <c r="F33" s="13" t="n"/>
-      <c r="G33" s="12" t="n"/>
-      <c r="H33" s="13" t="n"/>
-      <c r="I33" s="12" t="n"/>
-      <c r="J33" s="13" t="n"/>
-      <c r="K33" s="13" t="n"/>
+      <c r="A33" s="11" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="B33" s="1" t="inlineStr">
+        <is>
+          <t>NON-FERROUS BASE METAL WASTE AND SCRAP, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C33" s="8" t="n">
+        <v>122.499297</v>
+      </c>
+      <c r="D33" s="9" t="n">
+        <v>10.21388382346363</v>
+      </c>
+      <c r="E33" s="8" t="n">
+        <v>133.665505</v>
+      </c>
+      <c r="F33" s="9" t="n">
+        <v>13.43307937038596</v>
+      </c>
+      <c r="G33" s="8" t="n">
+        <v>96.457508</v>
+      </c>
+      <c r="H33" s="9" t="n">
+        <v>9.678667415553589</v>
+      </c>
+      <c r="I33" s="8" t="n">
+        <v>54.358613</v>
+      </c>
+      <c r="J33" s="9" t="n">
+        <v>10.1430862877723</v>
+      </c>
+      <c r="K33" s="9" t="n">
+        <v>5.400023752450989</v>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="11" t="n"/>
-      <c r="C34" s="12" t="n"/>
-      <c r="D34" s="13" t="n"/>
-      <c r="E34" s="12" t="n"/>
-      <c r="F34" s="13" t="n"/>
-      <c r="G34" s="12" t="n"/>
-      <c r="H34" s="13" t="n"/>
-      <c r="I34" s="12" t="n"/>
-      <c r="J34" s="13" t="n"/>
-      <c r="K34" s="13" t="n"/>
+      <c r="A34" s="11" t="inlineStr">
+        <is>
+          <t>681</t>
+        </is>
+      </c>
+      <c r="B34" s="1" t="inlineStr">
+        <is>
+          <t>SILVER, PLATINUM AND OTHER METALS OF THE PLATINUM GROUP</t>
+        </is>
+      </c>
+      <c r="C34" s="8" t="n">
+        <v>53.619995</v>
+      </c>
+      <c r="D34" s="9" t="n">
+        <v>4.470788102112136</v>
+      </c>
+      <c r="E34" s="8" t="n">
+        <v>103.425433</v>
+      </c>
+      <c r="F34" s="9" t="n">
+        <v>10.39402088373912</v>
+      </c>
+      <c r="G34" s="8" t="n">
+        <v>128.548169</v>
+      </c>
+      <c r="H34" s="9" t="n">
+        <v>12.89868461695461</v>
+      </c>
+      <c r="I34" s="8" t="n">
+        <v>53.019219</v>
+      </c>
+      <c r="J34" s="9" t="n">
+        <v>9.893161056690253</v>
+      </c>
+      <c r="K34" s="9" t="n">
+        <v>-37.81178401712094</v>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="11" t="n"/>
-      <c r="C35" s="12" t="n"/>
-      <c r="D35" s="13" t="n"/>
-      <c r="E35" s="12" t="n"/>
-      <c r="F35" s="13" t="n"/>
-      <c r="G35" s="12" t="n"/>
-      <c r="H35" s="13" t="n"/>
-      <c r="I35" s="12" t="n"/>
-      <c r="J35" s="13" t="n"/>
-      <c r="K35" s="13" t="n"/>
+      <c r="A35" s="11" t="inlineStr">
+        <is>
+          <t>034</t>
+        </is>
+      </c>
+      <c r="B35" s="1" t="inlineStr">
+        <is>
+          <t>FISH, FRESH (LIVE OR DEAD), CHILLED OR FROZEN</t>
+        </is>
+      </c>
+      <c r="C35" s="8" t="n">
+        <v>21.71985</v>
+      </c>
+      <c r="D35" s="9" t="n">
+        <v>1.810982021905453</v>
+      </c>
+      <c r="E35" s="8" t="n">
+        <v>5.285603</v>
+      </c>
+      <c r="F35" s="9" t="n">
+        <v>0.5311910849351159</v>
+      </c>
+      <c r="G35" s="8" t="n">
+        <v>23.192</v>
+      </c>
+      <c r="H35" s="9" t="n">
+        <v>2.327114388042441</v>
+      </c>
+      <c r="I35" s="8" t="n">
+        <v>28.2774</v>
+      </c>
+      <c r="J35" s="9" t="n">
+        <v>5.276442726635656</v>
+      </c>
+      <c r="K35" s="9" t="n">
+        <v>62.02956681182672</v>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="11" t="n"/>
-      <c r="C36" s="12" t="n"/>
-      <c r="D36" s="13" t="n"/>
-      <c r="E36" s="12" t="n"/>
-      <c r="F36" s="13" t="n"/>
-      <c r="G36" s="12" t="n"/>
-      <c r="H36" s="13" t="n"/>
-      <c r="I36" s="12" t="n"/>
-      <c r="J36" s="13" t="n"/>
-      <c r="K36" s="13" t="n"/>
+      <c r="A36" s="11" t="inlineStr">
+        <is>
+          <t>687</t>
+        </is>
+      </c>
+      <c r="B36" s="1" t="inlineStr">
+        <is>
+          <t>TIN</t>
+        </is>
+      </c>
+      <c r="C36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G36" s="8" t="n">
+        <v>26.66451</v>
+      </c>
+      <c r="H36" s="9" t="n">
+        <v>2.675550399754292</v>
+      </c>
+      <c r="I36" s="8" t="n">
+        <v>26.942025</v>
+      </c>
+      <c r="J36" s="9" t="n">
+        <v>5.027267423882181</v>
+      </c>
+      <c r="K36" s="9" t="n">
+        <v>862.3237836841586</v>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="11" t="n"/>
-      <c r="C37" s="12" t="n"/>
-      <c r="D37" s="13" t="n"/>
-      <c r="E37" s="12" t="n"/>
-      <c r="F37" s="13" t="n"/>
-      <c r="G37" s="12" t="n"/>
-      <c r="H37" s="13" t="n"/>
-      <c r="I37" s="12" t="n"/>
-      <c r="J37" s="13" t="n"/>
-      <c r="K37" s="13" t="n"/>
+      <c r="A37" s="11" t="inlineStr">
+        <is>
+          <t>059</t>
+        </is>
+      </c>
+      <c r="B37" s="1" t="inlineStr">
+        <is>
+          <t>FRUIT JUICES AND VEGETABLE JUICES, UNFERMENTED AND NOT CONTAINING ADDED SPIRIT</t>
+        </is>
+      </c>
+      <c r="C37" s="8" t="n">
+        <v>65.52939000000001</v>
+      </c>
+      <c r="D37" s="9" t="n">
+        <v>5.463783000178683</v>
+      </c>
+      <c r="E37" s="8" t="n">
+        <v>57.198285</v>
+      </c>
+      <c r="F37" s="9" t="n">
+        <v>5.748297604942703</v>
+      </c>
+      <c r="G37" s="8" t="n">
+        <v>34.619376</v>
+      </c>
+      <c r="H37" s="9" t="n">
+        <v>3.4737516382654</v>
+      </c>
+      <c r="I37" s="8" t="n">
+        <v>25.739862</v>
+      </c>
+      <c r="J37" s="9" t="n">
+        <v>4.802948914486675</v>
+      </c>
+      <c r="K37" s="9" t="n">
+        <v>14.88804381301803</v>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" s="11" t="n"/>
-      <c r="C38" s="12" t="n"/>
-      <c r="D38" s="13" t="n"/>
-      <c r="E38" s="12" t="n"/>
-      <c r="F38" s="13" t="n"/>
-      <c r="G38" s="12" t="n"/>
-      <c r="H38" s="13" t="n"/>
-      <c r="I38" s="12" t="n"/>
-      <c r="J38" s="13" t="n"/>
-      <c r="K38" s="13" t="n"/>
+      <c r="A38" s="11" t="inlineStr">
+        <is>
+          <t>289</t>
+        </is>
+      </c>
+      <c r="B38" s="1" t="inlineStr">
+        <is>
+          <t>ORES AND CONCENTRATES OF PRECIOUS METALS; WASTE, SCRAP AND SWEEPINGS OF PRECIOUS METALS (OTHER THAN OF GOLD)</t>
+        </is>
+      </c>
+      <c r="C38" s="8" t="n">
+        <v>258.175065</v>
+      </c>
+      <c r="D38" s="9" t="n">
+        <v>21.52641022931888</v>
+      </c>
+      <c r="E38" s="8" t="n">
+        <v>35.21127</v>
+      </c>
+      <c r="F38" s="9" t="n">
+        <v>3.538652583866646</v>
+      </c>
+      <c r="G38" s="8" t="n">
+        <v>93.834444</v>
+      </c>
+      <c r="H38" s="9" t="n">
+        <v>9.415465881612741</v>
+      </c>
+      <c r="I38" s="8" t="n">
+        <v>18.682053</v>
+      </c>
+      <c r="J38" s="9" t="n">
+        <v>3.485991734405278</v>
+      </c>
+      <c r="K38" s="9" t="n">
+        <v>-72.73091917458324</v>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" s="11" t="n"/>
-      <c r="C39" s="12" t="n"/>
-      <c r="D39" s="13" t="n"/>
-      <c r="E39" s="12" t="n"/>
-      <c r="F39" s="13" t="n"/>
-      <c r="G39" s="12" t="n"/>
-      <c r="H39" s="13" t="n"/>
-      <c r="I39" s="12" t="n"/>
-      <c r="J39" s="13" t="n"/>
-      <c r="K39" s="13" t="n"/>
+      <c r="A39" s="11" t="inlineStr">
+        <is>
+          <t>581</t>
+        </is>
+      </c>
+      <c r="B39" s="1" t="inlineStr">
+        <is>
+          <t>TUBES, PIPES AND HOSES OF PLASTICS</t>
+        </is>
+      </c>
+      <c r="C39" s="8" t="n">
+        <v>29.167155</v>
+      </c>
+      <c r="D39" s="9" t="n">
+        <v>2.431931773706068</v>
+      </c>
+      <c r="E39" s="8" t="n">
+        <v>32.953567</v>
+      </c>
+      <c r="F39" s="9" t="n">
+        <v>3.311758565146121</v>
+      </c>
+      <c r="G39" s="8" t="n">
+        <v>37.716716</v>
+      </c>
+      <c r="H39" s="9" t="n">
+        <v>3.784542621305214</v>
+      </c>
+      <c r="I39" s="8" t="n">
+        <v>18.598856</v>
+      </c>
+      <c r="J39" s="9" t="n">
+        <v>3.470467527599564</v>
+      </c>
+      <c r="K39" s="9" t="n">
+        <v>-6.084702064678094</v>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" s="11" t="n"/>
-      <c r="C40" s="12" t="n"/>
-      <c r="D40" s="13" t="n"/>
-      <c r="E40" s="12" t="n"/>
-      <c r="F40" s="13" t="n"/>
-      <c r="G40" s="12" t="n"/>
-      <c r="H40" s="13" t="n"/>
-      <c r="I40" s="12" t="n"/>
-      <c r="J40" s="13" t="n"/>
-      <c r="K40" s="13" t="n"/>
+      <c r="A40" s="11" t="inlineStr">
+        <is>
+          <t>893</t>
+        </is>
+      </c>
+      <c r="B40" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES, N.E.S. OF PLASTICS</t>
+        </is>
+      </c>
+      <c r="C40" s="8" t="n">
+        <v>31.784004</v>
+      </c>
+      <c r="D40" s="9" t="n">
+        <v>2.650122345604183</v>
+      </c>
+      <c r="E40" s="8" t="n">
+        <v>21.04185</v>
+      </c>
+      <c r="F40" s="9" t="n">
+        <v>2.114658087363347</v>
+      </c>
+      <c r="G40" s="8" t="n">
+        <v>6.361194</v>
+      </c>
+      <c r="H40" s="9" t="n">
+        <v>0.6382901898296502</v>
+      </c>
+      <c r="I40" s="8" t="n">
+        <v>12.673238</v>
+      </c>
+      <c r="J40" s="9" t="n">
+        <v>2.364772378932384</v>
+      </c>
+      <c r="K40" s="9" t="n">
+        <v>295.5730238809501</v>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" s="11" t="n"/>
-      <c r="C41" s="12" t="n"/>
-      <c r="D41" s="13" t="n"/>
-      <c r="E41" s="12" t="n"/>
-      <c r="F41" s="13" t="n"/>
-      <c r="G41" s="12" t="n"/>
-      <c r="H41" s="13" t="n"/>
-      <c r="I41" s="12" t="n"/>
-      <c r="J41" s="13" t="n"/>
-      <c r="K41" s="13" t="n"/>
+      <c r="A41" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B41" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C41" s="8" t="n">
+        <v>368.010016</v>
+      </c>
+      <c r="D41" s="9" t="n">
+        <v>30.68435200322001</v>
+      </c>
+      <c r="E41" s="8" t="n">
+        <v>302.25911</v>
+      </c>
+      <c r="F41" s="9" t="n">
+        <v>30.37635338341198</v>
+      </c>
+      <c r="G41" s="8" t="n">
+        <v>202.801659</v>
+      </c>
+      <c r="H41" s="9" t="n">
+        <v>20.34937299835188</v>
+      </c>
+      <c r="I41" s="8" t="n">
+        <v>69.568054</v>
+      </c>
+      <c r="J41" s="9" t="n">
+        <v>12.98110337352432</v>
+      </c>
+      <c r="K41" s="9" t="n">
+        <v>-44.44339642342663</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="11" t="n"/>
@@ -1132,136 +1736,433 @@
       <c r="K43" s="13" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="11" t="n"/>
-      <c r="C44" s="12" t="n"/>
-      <c r="D44" s="13" t="n"/>
-      <c r="E44" s="12" t="n"/>
-      <c r="F44" s="13" t="n"/>
-      <c r="G44" s="12" t="n"/>
-      <c r="H44" s="13" t="n"/>
-      <c r="I44" s="12" t="n"/>
-      <c r="J44" s="13" t="n"/>
-      <c r="K44" s="13" t="n"/>
+      <c r="A44" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B44" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C44" s="8" t="n">
+        <v>21639.192696</v>
+      </c>
+      <c r="D44" s="9" t="n">
+        <v>18.72766860521881</v>
+      </c>
+      <c r="E44" s="8" t="n">
+        <v>24211.325779</v>
+      </c>
+      <c r="F44" s="9" t="n">
+        <v>18.99245873845805</v>
+      </c>
+      <c r="G44" s="8" t="n">
+        <v>26105.179051</v>
+      </c>
+      <c r="H44" s="9" t="n">
+        <v>20.34358702387434</v>
+      </c>
+      <c r="I44" s="8" t="n">
+        <v>14208.931185</v>
+      </c>
+      <c r="J44" s="9" t="n">
+        <v>20.10372915211492</v>
+      </c>
+      <c r="K44" s="9" t="n">
+        <v>-6.144486929149162</v>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" s="11" t="n"/>
-      <c r="C45" s="12" t="n"/>
-      <c r="D45" s="13" t="n"/>
-      <c r="E45" s="12" t="n"/>
-      <c r="F45" s="13" t="n"/>
-      <c r="G45" s="12" t="n"/>
-      <c r="H45" s="13" t="n"/>
-      <c r="I45" s="12" t="n"/>
-      <c r="J45" s="13" t="n"/>
-      <c r="K45" s="13" t="n"/>
+      <c r="A45" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B45" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C45" s="8" t="n">
+        <v>8153.08874</v>
+      </c>
+      <c r="D45" s="9" t="n">
+        <v>7.056101684416599</v>
+      </c>
+      <c r="E45" s="8" t="n">
+        <v>9252.549566</v>
+      </c>
+      <c r="F45" s="9" t="n">
+        <v>7.258118265056488</v>
+      </c>
+      <c r="G45" s="8" t="n">
+        <v>10606.47655</v>
+      </c>
+      <c r="H45" s="9" t="n">
+        <v>8.265554443816079</v>
+      </c>
+      <c r="I45" s="8" t="n">
+        <v>5586.498673</v>
+      </c>
+      <c r="J45" s="9" t="n">
+        <v>7.904145270912675</v>
+      </c>
+      <c r="K45" s="9" t="n">
+        <v>-8.516102108601508</v>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" s="11" t="n"/>
-      <c r="C46" s="12" t="n"/>
-      <c r="D46" s="13" t="n"/>
-      <c r="E46" s="12" t="n"/>
-      <c r="F46" s="13" t="n"/>
-      <c r="G46" s="12" t="n"/>
-      <c r="H46" s="13" t="n"/>
-      <c r="I46" s="12" t="n"/>
-      <c r="J46" s="13" t="n"/>
-      <c r="K46" s="13" t="n"/>
+      <c r="A46" s="11" t="inlineStr">
+        <is>
+          <t>894</t>
+        </is>
+      </c>
+      <c r="B46" s="1" t="inlineStr">
+        <is>
+          <t>BABY CARRIAGES, TOYS, GAMES AND SPORTING GOODS</t>
+        </is>
+      </c>
+      <c r="C46" s="8" t="n">
+        <v>6996.287192</v>
+      </c>
+      <c r="D46" s="9" t="n">
+        <v>6.054946219085735</v>
+      </c>
+      <c r="E46" s="8" t="n">
+        <v>9824.022704000001</v>
+      </c>
+      <c r="F46" s="9" t="n">
+        <v>7.706407635604558</v>
+      </c>
+      <c r="G46" s="8" t="n">
+        <v>10925.897452</v>
+      </c>
+      <c r="H46" s="9" t="n">
+        <v>8.514476962385533</v>
+      </c>
+      <c r="I46" s="8" t="n">
+        <v>4285.509228</v>
+      </c>
+      <c r="J46" s="9" t="n">
+        <v>6.063419948824327</v>
+      </c>
+      <c r="K46" s="9" t="n">
+        <v>-28.0801371405504</v>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" s="11" t="n"/>
-      <c r="C47" s="12" t="n"/>
-      <c r="D47" s="13" t="n"/>
-      <c r="E47" s="12" t="n"/>
-      <c r="F47" s="13" t="n"/>
-      <c r="G47" s="12" t="n"/>
-      <c r="H47" s="13" t="n"/>
-      <c r="I47" s="12" t="n"/>
-      <c r="J47" s="13" t="n"/>
-      <c r="K47" s="13" t="n"/>
+      <c r="A47" s="11" t="inlineStr">
+        <is>
+          <t>776</t>
+        </is>
+      </c>
+      <c r="B47" s="1" t="inlineStr">
+        <is>
+          <t>THERMIONIC, COLD CATHODE, DIODES, TRANSISTORS, PHOTOSENSITIVE SEMI-CONDUCTOR DEVICES, LIGHT EMITTING DIODES ETC, AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C47" s="8" t="n">
+        <v>6887.013681</v>
+      </c>
+      <c r="D47" s="9" t="n">
+        <v>5.960375311100105</v>
+      </c>
+      <c r="E47" s="8" t="n">
+        <v>12008.587773</v>
+      </c>
+      <c r="F47" s="9" t="n">
+        <v>9.420079258264989</v>
+      </c>
+      <c r="G47" s="8" t="n">
+        <v>8882.383738</v>
+      </c>
+      <c r="H47" s="9" t="n">
+        <v>6.921980738014791</v>
+      </c>
+      <c r="I47" s="8" t="n">
+        <v>3776.599711</v>
+      </c>
+      <c r="J47" s="9" t="n">
+        <v>5.34338133652517</v>
+      </c>
+      <c r="K47" s="9" t="n">
+        <v>-34.50419170031511</v>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" s="11" t="n"/>
-      <c r="C48" s="12" t="n"/>
-      <c r="D48" s="13" t="n"/>
-      <c r="E48" s="12" t="n"/>
-      <c r="F48" s="13" t="n"/>
-      <c r="G48" s="12" t="n"/>
-      <c r="H48" s="13" t="n"/>
-      <c r="I48" s="12" t="n"/>
-      <c r="J48" s="13" t="n"/>
-      <c r="K48" s="13" t="n"/>
+      <c r="A48" s="11" t="inlineStr">
+        <is>
+          <t>885</t>
+        </is>
+      </c>
+      <c r="B48" s="1" t="inlineStr">
+        <is>
+          <t>WATCHES AND CLOCKS</t>
+        </is>
+      </c>
+      <c r="C48" s="8" t="n">
+        <v>5799.459279</v>
+      </c>
+      <c r="D48" s="9" t="n">
+        <v>5.019149881993971</v>
+      </c>
+      <c r="E48" s="8" t="n">
+        <v>5319.795745</v>
+      </c>
+      <c r="F48" s="9" t="n">
+        <v>4.173088335029222</v>
+      </c>
+      <c r="G48" s="8" t="n">
+        <v>5566.710652</v>
+      </c>
+      <c r="H48" s="9" t="n">
+        <v>4.338099438599796</v>
+      </c>
+      <c r="I48" s="8" t="n">
+        <v>3249.230963</v>
+      </c>
+      <c r="J48" s="9" t="n">
+        <v>4.597225391715311</v>
+      </c>
+      <c r="K48" s="9" t="n">
+        <v>7.691651795627674</v>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" s="11" t="n"/>
-      <c r="C49" s="12" t="n"/>
-      <c r="D49" s="13" t="n"/>
-      <c r="E49" s="12" t="n"/>
-      <c r="F49" s="13" t="n"/>
-      <c r="G49" s="12" t="n"/>
-      <c r="H49" s="13" t="n"/>
-      <c r="I49" s="12" t="n"/>
-      <c r="J49" s="13" t="n"/>
-      <c r="K49" s="13" t="n"/>
+      <c r="A49" s="11" t="inlineStr">
+        <is>
+          <t>772</t>
+        </is>
+      </c>
+      <c r="B49" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL APPARATUS FOR SWITCHING ELECTRICAL CIRCUITS; ELECTRICAL RESISTORS; PRINTED CIRCUITS; BOARDS, CABINETS AND OTHER BASES ETC, FOR ELECTRIC CONTROL OF ELECTRICITY</t>
+        </is>
+      </c>
+      <c r="C49" s="8" t="n">
+        <v>5149.112216</v>
+      </c>
+      <c r="D49" s="9" t="n">
+        <v>4.456306136141441</v>
+      </c>
+      <c r="E49" s="8" t="n">
+        <v>5044.568752</v>
+      </c>
+      <c r="F49" s="9" t="n">
+        <v>3.957187836395798</v>
+      </c>
+      <c r="G49" s="8" t="n">
+        <v>5607.840237</v>
+      </c>
+      <c r="H49" s="9" t="n">
+        <v>4.370151442153141</v>
+      </c>
+      <c r="I49" s="8" t="n">
+        <v>3213.377256</v>
+      </c>
+      <c r="J49" s="9" t="n">
+        <v>4.546497212006185</v>
+      </c>
+      <c r="K49" s="9" t="n">
+        <v>-0.05167601934840116</v>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" s="11" t="n"/>
-      <c r="C50" s="12" t="n"/>
-      <c r="D50" s="13" t="n"/>
-      <c r="E50" s="12" t="n"/>
-      <c r="F50" s="13" t="n"/>
-      <c r="G50" s="12" t="n"/>
-      <c r="H50" s="13" t="n"/>
-      <c r="I50" s="12" t="n"/>
-      <c r="J50" s="13" t="n"/>
-      <c r="K50" s="13" t="n"/>
+      <c r="A50" s="11" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="B50" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL MACHINERY AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C50" s="8" t="n">
+        <v>3498.790989</v>
+      </c>
+      <c r="D50" s="9" t="n">
+        <v>3.028033396690899</v>
+      </c>
+      <c r="E50" s="8" t="n">
+        <v>3711.296912</v>
+      </c>
+      <c r="F50" s="9" t="n">
+        <v>2.911309116680602</v>
+      </c>
+      <c r="G50" s="8" t="n">
+        <v>4137.838206</v>
+      </c>
+      <c r="H50" s="9" t="n">
+        <v>3.224588939613056</v>
+      </c>
+      <c r="I50" s="8" t="n">
+        <v>2870.777629</v>
+      </c>
+      <c r="J50" s="9" t="n">
+        <v>4.061764756119947</v>
+      </c>
+      <c r="K50" s="9" t="n">
+        <v>25.06185749560863</v>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" s="11" t="n"/>
-      <c r="C51" s="12" t="n"/>
-      <c r="D51" s="13" t="n"/>
-      <c r="E51" s="12" t="n"/>
-      <c r="F51" s="13" t="n"/>
-      <c r="G51" s="12" t="n"/>
-      <c r="H51" s="13" t="n"/>
-      <c r="I51" s="12" t="n"/>
-      <c r="J51" s="13" t="n"/>
-      <c r="K51" s="13" t="n"/>
+      <c r="A51" s="11" t="inlineStr">
+        <is>
+          <t>759</t>
+        </is>
+      </c>
+      <c r="B51" s="1" t="inlineStr">
+        <is>
+          <t>PARTS AND ACCESSORIES (OTHER THAN COVERS, CARRYING CASES AND THE LIKE) SUITABLE FOR USE SOLELY WITH MACHINES FALLING WITHIN GROUPS 751 AND 752</t>
+        </is>
+      </c>
+      <c r="C51" s="8" t="n">
+        <v>5451.452991</v>
+      </c>
+      <c r="D51" s="9" t="n">
+        <v>4.717967369052947</v>
+      </c>
+      <c r="E51" s="8" t="n">
+        <v>5175.899894</v>
+      </c>
+      <c r="F51" s="9" t="n">
+        <v>4.060209922764692</v>
+      </c>
+      <c r="G51" s="8" t="n">
+        <v>5211.611179</v>
+      </c>
+      <c r="H51" s="9" t="n">
+        <v>4.06137285430806</v>
+      </c>
+      <c r="I51" s="8" t="n">
+        <v>2775.873573</v>
+      </c>
+      <c r="J51" s="9" t="n">
+        <v>3.927488263932041</v>
+      </c>
+      <c r="K51" s="9" t="n">
+        <v>-11.9490096037748</v>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" s="11" t="n"/>
-      <c r="C52" s="12" t="n"/>
-      <c r="D52" s="13" t="n"/>
-      <c r="E52" s="12" t="n"/>
-      <c r="F52" s="13" t="n"/>
-      <c r="G52" s="12" t="n"/>
-      <c r="H52" s="13" t="n"/>
-      <c r="I52" s="12" t="n"/>
-      <c r="J52" s="13" t="n"/>
-      <c r="K52" s="13" t="n"/>
+      <c r="A52" s="11" t="inlineStr">
+        <is>
+          <t>771</t>
+        </is>
+      </c>
+      <c r="B52" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRIC POWER MACHINERY (OTHER THAN ROTATING ELECTRIC PLANT OF GROUP 716), AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C52" s="8" t="n">
+        <v>3829.539085</v>
+      </c>
+      <c r="D52" s="9" t="n">
+        <v>3.3142797840083</v>
+      </c>
+      <c r="E52" s="8" t="n">
+        <v>4138.626146</v>
+      </c>
+      <c r="F52" s="9" t="n">
+        <v>3.246525490974381</v>
+      </c>
+      <c r="G52" s="8" t="n">
+        <v>4151.105219</v>
+      </c>
+      <c r="H52" s="9" t="n">
+        <v>3.23492783186831</v>
+      </c>
+      <c r="I52" s="8" t="n">
+        <v>2350.544077</v>
+      </c>
+      <c r="J52" s="9" t="n">
+        <v>3.325704155285199</v>
+      </c>
+      <c r="K52" s="9" t="n">
+        <v>2.522954402342825</v>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" s="11" t="n"/>
-      <c r="C53" s="12" t="n"/>
-      <c r="D53" s="13" t="n"/>
-      <c r="E53" s="12" t="n"/>
-      <c r="F53" s="13" t="n"/>
-      <c r="G53" s="12" t="n"/>
-      <c r="H53" s="13" t="n"/>
-      <c r="I53" s="12" t="n"/>
-      <c r="J53" s="13" t="n"/>
-      <c r="K53" s="13" t="n"/>
+      <c r="A53" s="11" t="inlineStr">
+        <is>
+          <t>845</t>
+        </is>
+      </c>
+      <c r="B53" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES OF APPAREL, OF TEXTILE FABRICS, WHETHER OR NOT KNITTED OR CROCHETED, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C53" s="8" t="n">
+        <v>5323.096488</v>
+      </c>
+      <c r="D53" s="9" t="n">
+        <v>4.606881059814012</v>
+      </c>
+      <c r="E53" s="8" t="n">
+        <v>5086.154215</v>
+      </c>
+      <c r="F53" s="9" t="n">
+        <v>3.989809354001093</v>
+      </c>
+      <c r="G53" s="8" t="n">
+        <v>4437.479951</v>
+      </c>
+      <c r="H53" s="9" t="n">
+        <v>3.458097696763664</v>
+      </c>
+      <c r="I53" s="8" t="n">
+        <v>2312.376519</v>
+      </c>
+      <c r="J53" s="9" t="n">
+        <v>3.271702187196307</v>
+      </c>
+      <c r="K53" s="9" t="n">
+        <v>0.2974541966588751</v>
+      </c>
     </row>
     <row r="54">
-      <c r="A54" s="11" t="n"/>
-      <c r="C54" s="12" t="n"/>
-      <c r="D54" s="13" t="n"/>
-      <c r="E54" s="12" t="n"/>
-      <c r="F54" s="13" t="n"/>
-      <c r="G54" s="12" t="n"/>
-      <c r="H54" s="13" t="n"/>
-      <c r="I54" s="12" t="n"/>
-      <c r="J54" s="13" t="n"/>
-      <c r="K54" s="13" t="n"/>
+      <c r="A54" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B54" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C54" s="8" t="n">
+        <v>42819.611301</v>
+      </c>
+      <c r="D54" s="9" t="n">
+        <v>37.05829055247719</v>
+      </c>
+      <c r="E54" s="8" t="n">
+        <v>43705.800281</v>
+      </c>
+      <c r="F54" s="9" t="n">
+        <v>34.28480604677013</v>
+      </c>
+      <c r="G54" s="8" t="n">
+        <v>42688.894339</v>
+      </c>
+      <c r="H54" s="9" t="n">
+        <v>33.26716262860323</v>
+      </c>
+      <c r="I54" s="8" t="n">
+        <v>26048.368209</v>
+      </c>
+      <c r="J54" s="9" t="n">
+        <v>36.85494232536792</v>
+      </c>
+      <c r="K54" s="9" t="n">
+        <v>6.322313583998418</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="11" t="n"/>
@@ -1293,136 +2194,433 @@
       <c r="K56" s="13" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="11" t="n"/>
-      <c r="C57" s="12" t="n"/>
-      <c r="D57" s="13" t="n"/>
-      <c r="E57" s="12" t="n"/>
-      <c r="F57" s="13" t="n"/>
-      <c r="G57" s="12" t="n"/>
-      <c r="H57" s="13" t="n"/>
-      <c r="I57" s="12" t="n"/>
-      <c r="J57" s="13" t="n"/>
-      <c r="K57" s="13" t="n"/>
+      <c r="A57" s="11" t="inlineStr">
+        <is>
+          <t>776</t>
+        </is>
+      </c>
+      <c r="B57" s="1" t="inlineStr">
+        <is>
+          <t>THERMIONIC, COLD CATHODE, DIODES, TRANSISTORS, PHOTOSENSITIVE SEMI-CONDUCTOR DEVICES, LIGHT EMITTING DIODES ETC, AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C57" s="8" t="n">
+        <v>54714.750734</v>
+      </c>
+      <c r="D57" s="9" t="n">
+        <v>22.17883397459558</v>
+      </c>
+      <c r="E57" s="8" t="n">
+        <v>59514.50006</v>
+      </c>
+      <c r="F57" s="9" t="n">
+        <v>23.48690238199057</v>
+      </c>
+      <c r="G57" s="8" t="n">
+        <v>64736.185458</v>
+      </c>
+      <c r="H57" s="9" t="n">
+        <v>24.90199652891748</v>
+      </c>
+      <c r="I57" s="8" t="n">
+        <v>35436.877161</v>
+      </c>
+      <c r="J57" s="9" t="n">
+        <v>25.12457218492069</v>
+      </c>
+      <c r="K57" s="9" t="n">
+        <v>1.396121489644186</v>
+      </c>
     </row>
     <row r="58">
-      <c r="A58" s="11" t="n"/>
-      <c r="C58" s="12" t="n"/>
-      <c r="D58" s="13" t="n"/>
-      <c r="E58" s="12" t="n"/>
-      <c r="F58" s="13" t="n"/>
-      <c r="G58" s="12" t="n"/>
-      <c r="H58" s="13" t="n"/>
-      <c r="I58" s="12" t="n"/>
-      <c r="J58" s="13" t="n"/>
-      <c r="K58" s="13" t="n"/>
+      <c r="A58" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B58" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C58" s="8" t="n">
+        <v>29830.734679</v>
+      </c>
+      <c r="D58" s="9" t="n">
+        <v>12.09200266674383</v>
+      </c>
+      <c r="E58" s="8" t="n">
+        <v>25926.959282</v>
+      </c>
+      <c r="F58" s="9" t="n">
+        <v>10.23185880926945</v>
+      </c>
+      <c r="G58" s="8" t="n">
+        <v>19643.000433</v>
+      </c>
+      <c r="H58" s="9" t="n">
+        <v>7.556051150363882</v>
+      </c>
+      <c r="I58" s="8" t="n">
+        <v>10813.999417</v>
+      </c>
+      <c r="J58" s="9" t="n">
+        <v>7.667072573175905</v>
+      </c>
+      <c r="K58" s="9" t="n">
+        <v>0.5940241256664702</v>
+      </c>
     </row>
     <row r="59">
-      <c r="A59" s="11" t="n"/>
-      <c r="C59" s="12" t="n"/>
-      <c r="D59" s="13" t="n"/>
-      <c r="E59" s="12" t="n"/>
-      <c r="F59" s="13" t="n"/>
-      <c r="G59" s="12" t="n"/>
-      <c r="H59" s="13" t="n"/>
-      <c r="I59" s="12" t="n"/>
-      <c r="J59" s="13" t="n"/>
-      <c r="K59" s="13" t="n"/>
+      <c r="A59" s="11" t="inlineStr">
+        <is>
+          <t>772</t>
+        </is>
+      </c>
+      <c r="B59" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL APPARATUS FOR SWITCHING ELECTRICAL CIRCUITS; ELECTRICAL RESISTORS; PRINTED CIRCUITS; BOARDS, CABINETS AND OTHER BASES ETC, FOR ELECTRIC CONTROL OF ELECTRICITY</t>
+        </is>
+      </c>
+      <c r="C59" s="8" t="n">
+        <v>15253.068821</v>
+      </c>
+      <c r="D59" s="9" t="n">
+        <v>6.182889923572678</v>
+      </c>
+      <c r="E59" s="8" t="n">
+        <v>17380.990737</v>
+      </c>
+      <c r="F59" s="9" t="n">
+        <v>6.859263411952475</v>
+      </c>
+      <c r="G59" s="8" t="n">
+        <v>19296.733462</v>
+      </c>
+      <c r="H59" s="9" t="n">
+        <v>7.422853019381711</v>
+      </c>
+      <c r="I59" s="8" t="n">
+        <v>9472.095907000001</v>
+      </c>
+      <c r="J59" s="9" t="n">
+        <v>6.715669563000445</v>
+      </c>
+      <c r="K59" s="9" t="n">
+        <v>-4.330066724314308</v>
+      </c>
     </row>
     <row r="60">
-      <c r="A60" s="11" t="n"/>
-      <c r="C60" s="12" t="n"/>
-      <c r="D60" s="13" t="n"/>
-      <c r="E60" s="12" t="n"/>
-      <c r="F60" s="13" t="n"/>
-      <c r="G60" s="12" t="n"/>
-      <c r="H60" s="13" t="n"/>
-      <c r="I60" s="12" t="n"/>
-      <c r="J60" s="13" t="n"/>
-      <c r="K60" s="13" t="n"/>
+      <c r="A60" s="11" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="B60" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL MACHINERY AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C60" s="8" t="n">
+        <v>13501.585674</v>
+      </c>
+      <c r="D60" s="9" t="n">
+        <v>5.472919515127114</v>
+      </c>
+      <c r="E60" s="8" t="n">
+        <v>13683.394756</v>
+      </c>
+      <c r="F60" s="9" t="n">
+        <v>5.400037916212208</v>
+      </c>
+      <c r="G60" s="8" t="n">
+        <v>15069.831639</v>
+      </c>
+      <c r="H60" s="9" t="n">
+        <v>5.796895391824074</v>
+      </c>
+      <c r="I60" s="8" t="n">
+        <v>7854.536407</v>
+      </c>
+      <c r="J60" s="9" t="n">
+        <v>5.568827807263541</v>
+      </c>
+      <c r="K60" s="9" t="n">
+        <v>-3.600282917455688</v>
+      </c>
     </row>
     <row r="61">
-      <c r="A61" s="11" t="n"/>
-      <c r="C61" s="12" t="n"/>
-      <c r="D61" s="13" t="n"/>
-      <c r="E61" s="12" t="n"/>
-      <c r="F61" s="13" t="n"/>
-      <c r="G61" s="12" t="n"/>
-      <c r="H61" s="13" t="n"/>
-      <c r="I61" s="12" t="n"/>
-      <c r="J61" s="13" t="n"/>
-      <c r="K61" s="13" t="n"/>
+      <c r="A61" s="11" t="inlineStr">
+        <is>
+          <t>751</t>
+        </is>
+      </c>
+      <c r="B61" s="1" t="inlineStr">
+        <is>
+          <t>OFFICE MACHINES</t>
+        </is>
+      </c>
+      <c r="C61" s="8" t="n">
+        <v>9728.637269999999</v>
+      </c>
+      <c r="D61" s="9" t="n">
+        <v>3.943540414894232</v>
+      </c>
+      <c r="E61" s="8" t="n">
+        <v>8604.282666999999</v>
+      </c>
+      <c r="F61" s="9" t="n">
+        <v>3.39560858048284</v>
+      </c>
+      <c r="G61" s="8" t="n">
+        <v>8340.138943</v>
+      </c>
+      <c r="H61" s="9" t="n">
+        <v>3.208191980110097</v>
+      </c>
+      <c r="I61" s="8" t="n">
+        <v>4450.04155</v>
+      </c>
+      <c r="J61" s="9" t="n">
+        <v>3.155057643508119</v>
+      </c>
+      <c r="K61" s="9" t="n">
+        <v>-8.199819794463137</v>
+      </c>
     </row>
     <row r="62">
-      <c r="A62" s="11" t="n"/>
-      <c r="C62" s="12" t="n"/>
-      <c r="D62" s="13" t="n"/>
-      <c r="E62" s="12" t="n"/>
-      <c r="F62" s="13" t="n"/>
-      <c r="G62" s="12" t="n"/>
-      <c r="H62" s="13" t="n"/>
-      <c r="I62" s="12" t="n"/>
-      <c r="J62" s="13" t="n"/>
-      <c r="K62" s="13" t="n"/>
+      <c r="A62" s="11" t="inlineStr">
+        <is>
+          <t>553</t>
+        </is>
+      </c>
+      <c r="B62" s="1" t="inlineStr">
+        <is>
+          <t>PERFUMERY, COSMETICS OR TOILET PREPARATIONS (EXCLUDING SOAPS)</t>
+        </is>
+      </c>
+      <c r="C62" s="8" t="n">
+        <v>4272.143793</v>
+      </c>
+      <c r="D62" s="9" t="n">
+        <v>1.731729864971627</v>
+      </c>
+      <c r="E62" s="8" t="n">
+        <v>5206.65964</v>
+      </c>
+      <c r="F62" s="9" t="n">
+        <v>2.054764915737245</v>
+      </c>
+      <c r="G62" s="8" t="n">
+        <v>6940.506023</v>
+      </c>
+      <c r="H62" s="9" t="n">
+        <v>2.669796739967144</v>
+      </c>
+      <c r="I62" s="8" t="n">
+        <v>4283.832657</v>
+      </c>
+      <c r="J62" s="9" t="n">
+        <v>3.037216353177095</v>
+      </c>
+      <c r="K62" s="9" t="n">
+        <v>2.971678103431863</v>
+      </c>
     </row>
     <row r="63">
-      <c r="A63" s="11" t="n"/>
-      <c r="C63" s="12" t="n"/>
-      <c r="D63" s="13" t="n"/>
-      <c r="E63" s="12" t="n"/>
-      <c r="F63" s="13" t="n"/>
-      <c r="G63" s="12" t="n"/>
-      <c r="H63" s="13" t="n"/>
-      <c r="I63" s="12" t="n"/>
-      <c r="J63" s="13" t="n"/>
-      <c r="K63" s="13" t="n"/>
+      <c r="A63" s="11" t="inlineStr">
+        <is>
+          <t>728</t>
+        </is>
+      </c>
+      <c r="B63" s="1" t="inlineStr">
+        <is>
+          <t>OTHER MACHINERY AND EQUIPMENT SPECIALIZED FOR PARTICULAR INDUSTRIES, AND PARTS THEREOF, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C63" s="8" t="n">
+        <v>4741.722284</v>
+      </c>
+      <c r="D63" s="9" t="n">
+        <v>1.922075306561263</v>
+      </c>
+      <c r="E63" s="8" t="n">
+        <v>6020.007535</v>
+      </c>
+      <c r="F63" s="9" t="n">
+        <v>2.375745896728494</v>
+      </c>
+      <c r="G63" s="8" t="n">
+        <v>7180.528282</v>
+      </c>
+      <c r="H63" s="9" t="n">
+        <v>2.762125835637428</v>
+      </c>
+      <c r="I63" s="8" t="n">
+        <v>3866.067557</v>
+      </c>
+      <c r="J63" s="9" t="n">
+        <v>2.741022945287244</v>
+      </c>
+      <c r="K63" s="9" t="n">
+        <v>-17.89534538038707</v>
+      </c>
     </row>
     <row r="64">
-      <c r="A64" s="11" t="n"/>
-      <c r="C64" s="12" t="n"/>
-      <c r="D64" s="13" t="n"/>
-      <c r="E64" s="12" t="n"/>
-      <c r="F64" s="13" t="n"/>
-      <c r="G64" s="12" t="n"/>
-      <c r="H64" s="13" t="n"/>
-      <c r="I64" s="12" t="n"/>
-      <c r="J64" s="13" t="n"/>
-      <c r="K64" s="13" t="n"/>
+      <c r="A64" s="11" t="inlineStr">
+        <is>
+          <t>885</t>
+        </is>
+      </c>
+      <c r="B64" s="1" t="inlineStr">
+        <is>
+          <t>WATCHES AND CLOCKS</t>
+        </is>
+      </c>
+      <c r="C64" s="8" t="n">
+        <v>5847.760554</v>
+      </c>
+      <c r="D64" s="9" t="n">
+        <v>2.370412159618248</v>
+      </c>
+      <c r="E64" s="8" t="n">
+        <v>5990.814415</v>
+      </c>
+      <c r="F64" s="9" t="n">
+        <v>2.364225074761167</v>
+      </c>
+      <c r="G64" s="8" t="n">
+        <v>6152.807771</v>
+      </c>
+      <c r="H64" s="9" t="n">
+        <v>2.366793728616337</v>
+      </c>
+      <c r="I64" s="8" t="n">
+        <v>3260.724273</v>
+      </c>
+      <c r="J64" s="9" t="n">
+        <v>2.311837524506059</v>
+      </c>
+      <c r="K64" s="9" t="n">
+        <v>-7.534171177930194</v>
+      </c>
     </row>
     <row r="65">
-      <c r="A65" s="11" t="n"/>
-      <c r="C65" s="12" t="n"/>
-      <c r="D65" s="13" t="n"/>
-      <c r="E65" s="12" t="n"/>
-      <c r="F65" s="13" t="n"/>
-      <c r="G65" s="12" t="n"/>
-      <c r="H65" s="13" t="n"/>
-      <c r="I65" s="12" t="n"/>
-      <c r="J65" s="13" t="n"/>
-      <c r="K65" s="13" t="n"/>
+      <c r="A65" s="11" t="inlineStr">
+        <is>
+          <t>781</t>
+        </is>
+      </c>
+      <c r="B65" s="1" t="inlineStr">
+        <is>
+          <t>MOTOR CARS AND OTHER MOTOR VEHICLES PRINCIPALLY DESIGNED FOR THE TRANSPORT OF PERSONS (OTHER THAN PUBLIC-TRANSPORT TYPE VEHICLES), INCLUDING STATION WAGONS AND RACING CARS</t>
+        </is>
+      </c>
+      <c r="C65" s="8" t="n">
+        <v>4264.911226</v>
+      </c>
+      <c r="D65" s="9" t="n">
+        <v>1.728798116210073</v>
+      </c>
+      <c r="E65" s="8" t="n">
+        <v>5101.323235</v>
+      </c>
+      <c r="F65" s="9" t="n">
+        <v>2.013194779736597</v>
+      </c>
+      <c r="G65" s="8" t="n">
+        <v>5695.825603</v>
+      </c>
+      <c r="H65" s="9" t="n">
+        <v>2.191006905824681</v>
+      </c>
+      <c r="I65" s="8" t="n">
+        <v>3172.579158</v>
+      </c>
+      <c r="J65" s="9" t="n">
+        <v>2.249343070084919</v>
+      </c>
+      <c r="K65" s="9" t="n">
+        <v>-2.930746984473098</v>
+      </c>
     </row>
     <row r="66">
-      <c r="A66" s="11" t="n"/>
-      <c r="C66" s="12" t="n"/>
-      <c r="D66" s="13" t="n"/>
-      <c r="E66" s="12" t="n"/>
-      <c r="F66" s="13" t="n"/>
-      <c r="G66" s="12" t="n"/>
-      <c r="H66" s="13" t="n"/>
-      <c r="I66" s="12" t="n"/>
-      <c r="J66" s="13" t="n"/>
-      <c r="K66" s="13" t="n"/>
+      <c r="A66" s="11" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="B66" s="1" t="inlineStr">
+        <is>
+          <t>WORKS OF ART, COLLECTORS' PIECES AND ANTIQUES</t>
+        </is>
+      </c>
+      <c r="C66" s="8" t="n">
+        <v>885.683354</v>
+      </c>
+      <c r="D66" s="9" t="n">
+        <v>0.3590151430631018</v>
+      </c>
+      <c r="E66" s="8" t="n">
+        <v>678.144714</v>
+      </c>
+      <c r="F66" s="9" t="n">
+        <v>0.267624170286627</v>
+      </c>
+      <c r="G66" s="8" t="n">
+        <v>1316.019745</v>
+      </c>
+      <c r="H66" s="9" t="n">
+        <v>0.5062318530219641</v>
+      </c>
+      <c r="I66" s="8" t="n">
+        <v>2754.486165</v>
+      </c>
+      <c r="J66" s="9" t="n">
+        <v>1.952917187665499</v>
+      </c>
+      <c r="K66" s="9" t="n">
+        <v>159.1117353370508</v>
+      </c>
     </row>
     <row r="67">
-      <c r="A67" s="11" t="n"/>
-      <c r="C67" s="12" t="n"/>
-      <c r="D67" s="13" t="n"/>
-      <c r="E67" s="12" t="n"/>
-      <c r="F67" s="13" t="n"/>
-      <c r="G67" s="12" t="n"/>
-      <c r="H67" s="13" t="n"/>
-      <c r="I67" s="12" t="n"/>
-      <c r="J67" s="13" t="n"/>
-      <c r="K67" s="13" t="n"/>
+      <c r="A67" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B67" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C67" s="8" t="n">
+        <v>103657.050736</v>
+      </c>
+      <c r="D67" s="9" t="n">
+        <v>42.01778291464225</v>
+      </c>
+      <c r="E67" s="8" t="n">
+        <v>105287.34293</v>
+      </c>
+      <c r="F67" s="9" t="n">
+        <v>41.55077406284232</v>
+      </c>
+      <c r="G67" s="8" t="n">
+        <v>105592.258805</v>
+      </c>
+      <c r="H67" s="9" t="n">
+        <v>40.6180568663352</v>
+      </c>
+      <c r="I67" s="8" t="n">
+        <v>55679.45854</v>
+      </c>
+      <c r="J67" s="9" t="n">
+        <v>39.47646314741048</v>
+      </c>
+      <c r="K67" s="9" t="n">
+        <v>-10.05263055813019</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="11" t="n"/>
